--- a/templates/Tong ket danh gia.xlsx
+++ b/templates/Tong ket danh gia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="568" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="568"/>
   </bookViews>
   <sheets>
     <sheet name="Tong hop" sheetId="38" r:id="rId1"/>
@@ -655,6 +655,27 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,51 +691,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,6 +714,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1231,8 +1231,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1250,43 +1250,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
@@ -1328,48 +1328,48 @@
       <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="102" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="95"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="58"/>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="97"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="78"/>
       <c r="H11" s="19"/>
     </row>
@@ -1453,11 +1453,11 @@
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="28"/>
       <c r="F17" s="45"/>
       <c r="G17" s="80"/>
@@ -1466,11 +1466,11 @@
     </row>
     <row r="18" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="35"/>
       <c r="F18" s="46"/>
       <c r="G18" s="81"/>
@@ -1479,11 +1479,11 @@
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="35"/>
       <c r="F19" s="46"/>
       <c r="G19" s="81"/>
@@ -1492,11 +1492,11 @@
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="28"/>
       <c r="F20" s="46"/>
       <c r="G20" s="80"/>
@@ -1505,11 +1505,11 @@
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="28">
         <f>E17-SUM(E18:E20)</f>
         <v>0</v>
@@ -1615,16 +1615,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A8:I9"/>
-  <mergeCells count="18">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -1634,6 +1625,14 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="B14:D15 G15 B10:E10 B9:C9 E9:I9">
     <cfRule type="expression" dxfId="15" priority="58" stopIfTrue="1">
@@ -1696,12 +1695,12 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1719,43 +1718,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
@@ -1797,48 +1796,48 @@
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="100" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="93"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:18" s="66" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="62"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="63"/>
       <c r="F9" s="64"/>
       <c r="G9" s="85"/>
@@ -1948,9 +1947,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A8:I9"/>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -1994,7 +1992,7 @@
   <dimension ref="A1:N1081"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="A7:XFD8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2015,43 +2013,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="25" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:14" s="25" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:14" s="27" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
@@ -2093,48 +2091,48 @@
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:14" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="112" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="105" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="15" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:14" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71"/>
       <c r="B9" s="71"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="72"/>
       <c r="F9" s="73"/>
       <c r="G9" s="88"/>
@@ -5401,10 +5399,9 @@
   <autoFilter ref="A7:N8">
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -5441,7 +5438,7 @@
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5459,43 +5456,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
@@ -5537,48 +5534,48 @@
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="95"/>
+      <c r="E7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="96" t="s">
+      <c r="H7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="100" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="93"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:18" s="66" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
       <c r="B9" s="62"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="63"/>
       <c r="F9" s="64"/>
       <c r="G9" s="85"/>
@@ -5688,8 +5685,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A8:I9"/>
-  <mergeCells count="12">
-    <mergeCell ref="C9:D9"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
